--- a/database/industries/siman/sehegmat/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sehegmat/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E10D22-B6BE-4C93-97CC-1B2CBB60F59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD67A8-C31B-41B7-9DE3-EE5EEA49CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/04</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/01</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/04</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/07</t>
@@ -645,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -663,8 +678,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +695,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,8 +712,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -697,8 +727,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +744,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +761,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -731,8 +776,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,8 +803,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -763,10 +828,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -775,152 +845,247 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>101262</v>
       </c>
       <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>82548</v>
+      </c>
+      <c r="G11" s="11">
+        <v>60746</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>21242</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>272083</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>408461</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>326075</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>362693</v>
+      </c>
+      <c r="F13" s="11">
+        <v>202147</v>
+      </c>
+      <c r="G13" s="11">
+        <v>219151</v>
+      </c>
+      <c r="H13" s="11">
+        <v>240906</v>
+      </c>
+      <c r="I13" s="11">
+        <v>144489</v>
+      </c>
+      <c r="J13" s="11">
         <v>199840</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-116798</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>275752</v>
+      </c>
+      <c r="F14" s="13">
+        <v>169578</v>
+      </c>
+      <c r="G14" s="13">
+        <v>103203</v>
+      </c>
+      <c r="H14" s="13">
+        <v>146623</v>
+      </c>
+      <c r="I14" s="13">
+        <v>131593</v>
+      </c>
+      <c r="J14" s="13">
         <v>147498</v>
       </c>
-      <c r="F14" s="13">
+      <c r="K14" s="13">
         <v>-66706</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
         <v>519943</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
+        <v>739707</v>
+      </c>
+      <c r="F16" s="15">
+        <v>454273</v>
+      </c>
+      <c r="G16" s="15">
+        <v>383100</v>
+      </c>
+      <c r="H16" s="15">
+        <v>408771</v>
+      </c>
+      <c r="I16" s="15">
+        <v>276082</v>
+      </c>
+      <c r="J16" s="15">
         <v>347338</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>336439</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>272083</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>408461</v>
       </c>
-      <c r="I16" s="15">
+      <c r="N16" s="15">
         <v>326075</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -929,104 +1094,169 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
+        <v>76367</v>
+      </c>
+      <c r="F18" s="11">
+        <v>144467</v>
+      </c>
+      <c r="G18" s="11">
+        <v>25019</v>
+      </c>
+      <c r="H18" s="11">
+        <v>79082</v>
+      </c>
+      <c r="I18" s="11">
+        <v>32123</v>
+      </c>
+      <c r="J18" s="11">
         <v>48885</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>114454</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>108194</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>165738</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>94359</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>13</v>
+      <c r="E19" s="13">
+        <v>0</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>13</v>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>13</v>
+      <c r="E20" s="11">
+        <v>0</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>13</v>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
+        <v>76367</v>
+      </c>
+      <c r="F21" s="15">
+        <v>144467</v>
+      </c>
+      <c r="G21" s="15">
+        <v>25019</v>
+      </c>
+      <c r="H21" s="15">
+        <v>79082</v>
+      </c>
+      <c r="I21" s="15">
+        <v>32123</v>
+      </c>
+      <c r="J21" s="15">
         <v>48885</v>
       </c>
-      <c r="F21" s="15">
+      <c r="K21" s="15">
         <v>114454</v>
       </c>
-      <c r="G21" s="15">
+      <c r="L21" s="15">
         <v>108194</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>165738</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>94359</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1035,10 +1265,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1057,32 +1292,62 @@
       <c r="I23" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>13</v>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -1101,30 +1366,60 @@
       <c r="I25" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15">
+        <v>816074</v>
+      </c>
+      <c r="F26" s="15">
+        <v>598740</v>
+      </c>
+      <c r="G26" s="15">
+        <v>408119</v>
+      </c>
+      <c r="H26" s="15">
+        <v>487853</v>
+      </c>
+      <c r="I26" s="15">
+        <v>308205</v>
+      </c>
+      <c r="J26" s="15">
         <v>396223</v>
       </c>
-      <c r="F26" s="15">
+      <c r="K26" s="15">
         <v>450893</v>
       </c>
-      <c r="G26" s="15">
+      <c r="L26" s="15">
         <v>380277</v>
       </c>
-      <c r="H26" s="15">
+      <c r="M26" s="15">
         <v>574199</v>
       </c>
-      <c r="I26" s="15">
+      <c r="N26" s="15">
         <v>420434</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1133,8 +1428,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1143,8 +1443,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1153,10 +1458,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1175,8 +1485,23 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1185,10 +1510,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1197,152 +1527,247 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>0</v>
+        <v>94823</v>
       </c>
       <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>13</v>
+        <v>98538</v>
+      </c>
+      <c r="G33" s="11">
+        <v>73829</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>25529</v>
       </c>
       <c r="I33" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="13">
+        <v>18</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13">
         <v>1273487</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>2564981</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>2129791</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>622581</v>
+      </c>
+      <c r="F35" s="11">
+        <v>450998</v>
+      </c>
+      <c r="G35" s="11">
+        <v>477140</v>
+      </c>
+      <c r="H35" s="11">
+        <v>537029</v>
+      </c>
+      <c r="I35" s="11">
+        <v>450616</v>
+      </c>
+      <c r="J35" s="11">
         <v>721078</v>
       </c>
-      <c r="F35" s="11">
+      <c r="K35" s="11">
         <v>-433749</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>691260</v>
+      </c>
+      <c r="F36" s="13">
+        <v>368437</v>
+      </c>
+      <c r="G36" s="13">
+        <v>320050</v>
+      </c>
+      <c r="H36" s="13">
+        <v>479939</v>
+      </c>
+      <c r="I36" s="13">
+        <v>573877</v>
+      </c>
+      <c r="J36" s="13">
         <v>719854</v>
       </c>
-      <c r="F36" s="13">
+      <c r="K36" s="13">
         <v>-326255</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11">
+        <v>18</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11">
         <v>2060816</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
+        <v>1408664</v>
+      </c>
+      <c r="F38" s="15">
+        <v>917973</v>
+      </c>
+      <c r="G38" s="15">
+        <v>871019</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1042497</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1024493</v>
+      </c>
+      <c r="J38" s="15">
         <v>1440932</v>
       </c>
-      <c r="F38" s="15">
+      <c r="K38" s="15">
         <v>1300812</v>
       </c>
-      <c r="G38" s="15">
+      <c r="L38" s="15">
         <v>1273487</v>
       </c>
-      <c r="H38" s="15">
+      <c r="M38" s="15">
         <v>2564981</v>
       </c>
-      <c r="I38" s="15">
+      <c r="N38" s="15">
         <v>2129791</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1351,104 +1776,169 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>203157</v>
+      </c>
+      <c r="F40" s="11">
+        <v>630877</v>
+      </c>
+      <c r="G40" s="11">
+        <v>137686</v>
+      </c>
+      <c r="H40" s="11">
+        <v>328686</v>
+      </c>
+      <c r="I40" s="11">
+        <v>232536</v>
+      </c>
+      <c r="J40" s="11">
         <v>245276</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>617758</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>601817</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>1045200</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>724393</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
+      <c r="E41" s="13">
+        <v>0</v>
       </c>
       <c r="F41" s="13">
         <v>0</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>13</v>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
+      <c r="E42" s="11">
+        <v>0</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>13</v>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
+        <v>203157</v>
+      </c>
+      <c r="F43" s="15">
+        <v>630877</v>
+      </c>
+      <c r="G43" s="15">
+        <v>137686</v>
+      </c>
+      <c r="H43" s="15">
+        <v>328686</v>
+      </c>
+      <c r="I43" s="15">
+        <v>232536</v>
+      </c>
+      <c r="J43" s="15">
         <v>245276</v>
       </c>
-      <c r="F43" s="15">
+      <c r="K43" s="15">
         <v>617758</v>
       </c>
-      <c r="G43" s="15">
+      <c r="L43" s="15">
         <v>601817</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>1045200</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>724393</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1457,10 +1947,15 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -1479,41 +1974,71 @@
       <c r="I45" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="19">
+        <v>0</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0</v>
+      </c>
+      <c r="L45" s="19">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19">
+        <v>0</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>13</v>
+      <c r="E46" s="15">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <v>0</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19">
-        <v>0</v>
+        <v>-100156</v>
       </c>
       <c r="F47" s="19">
         <v>0</v>
@@ -1527,30 +2052,60 @@
       <c r="I47" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
+        <v>1511665</v>
+      </c>
+      <c r="F48" s="15">
+        <v>1548850</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1008705</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1371183</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1257029</v>
+      </c>
+      <c r="J48" s="15">
         <v>1686208</v>
       </c>
-      <c r="F48" s="15">
+      <c r="K48" s="15">
         <v>1918570</v>
       </c>
-      <c r="G48" s="15">
+      <c r="L48" s="15">
         <v>1875304</v>
       </c>
-      <c r="H48" s="15">
+      <c r="M48" s="15">
         <v>3610181</v>
       </c>
-      <c r="I48" s="15">
+      <c r="N48" s="15">
         <v>2854184</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1559,8 +2114,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1569,8 +2129,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1579,10 +2144,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1601,8 +2171,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1611,10 +2196,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1623,130 +2213,210 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="11">
+        <v>936412</v>
+      </c>
+      <c r="F55" s="11">
+        <v>1193705</v>
+      </c>
+      <c r="G55" s="11">
+        <v>1215372</v>
+      </c>
+      <c r="H55" s="11">
+        <v>1201817</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1201817</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13">
+        <v>18</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="13">
         <v>4680509</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>5640294</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>5929015</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>1716551</v>
+      </c>
+      <c r="F57" s="11">
+        <v>2231040</v>
+      </c>
+      <c r="G57" s="11">
+        <v>2177220</v>
+      </c>
+      <c r="H57" s="11">
+        <v>2229206</v>
+      </c>
+      <c r="I57" s="11">
+        <v>2562682</v>
+      </c>
+      <c r="J57" s="11">
         <v>2919721</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>3713668</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>2506818</v>
+      </c>
+      <c r="F58" s="13">
+        <v>2172670</v>
+      </c>
+      <c r="G58" s="13">
+        <v>3101170</v>
+      </c>
+      <c r="H58" s="13">
+        <v>3273286</v>
+      </c>
+      <c r="I58" s="13">
+        <v>3787762</v>
+      </c>
+      <c r="J58" s="13">
         <v>4166342</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>4890939</v>
       </c>
-      <c r="G58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="11">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="11">
         <v>3963542</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1755,80 +2425,130 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>2660272</v>
+      </c>
+      <c r="F61" s="11">
+        <v>4366928</v>
+      </c>
+      <c r="G61" s="11">
+        <v>5503258</v>
+      </c>
+      <c r="H61" s="11">
+        <v>4156268</v>
+      </c>
+      <c r="I61" s="11">
+        <v>7238925</v>
+      </c>
+      <c r="J61" s="11">
         <v>5017408</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>5397435</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>5562388</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>6012503</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>6438957</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1837,8 +2557,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1847,8 +2572,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1857,10 +2587,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1879,8 +2614,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1889,10 +2639,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1901,152 +2656,247 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>-36038</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-68336</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-42441</v>
+      </c>
+      <c r="H70" s="11">
+        <v>-17016</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-2982</v>
+      </c>
+      <c r="J70" s="11">
         <v>-5026</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>-3716</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="13">
+        <v>18</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="13">
         <v>-687218</v>
       </c>
-      <c r="H71" s="13">
+      <c r="M71" s="13">
         <v>-979378</v>
       </c>
-      <c r="I71" s="13">
+      <c r="N71" s="13">
         <v>-983984</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>-183830</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-187974</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-179796</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-236292</v>
+      </c>
+      <c r="I72" s="11">
+        <v>-178744</v>
+      </c>
+      <c r="J72" s="11">
         <v>-375307</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>69484</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
+        <v>-222698</v>
+      </c>
+      <c r="F73" s="13">
+        <v>-284842</v>
+      </c>
+      <c r="G73" s="13">
+        <v>-190617</v>
+      </c>
+      <c r="H73" s="13">
+        <v>-286154</v>
+      </c>
+      <c r="I73" s="13">
+        <v>-291083</v>
+      </c>
+      <c r="J73" s="13">
         <v>-279778</v>
       </c>
-      <c r="F73" s="13">
+      <c r="K73" s="13">
         <v>83275</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="11">
+        <v>18</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11">
         <v>-1107823</v>
       </c>
-      <c r="G74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
+        <v>-442566</v>
+      </c>
+      <c r="F75" s="15">
+        <v>-541152</v>
+      </c>
+      <c r="G75" s="15">
+        <v>-412854</v>
+      </c>
+      <c r="H75" s="15">
+        <v>-539462</v>
+      </c>
+      <c r="I75" s="15">
+        <v>-472809</v>
+      </c>
+      <c r="J75" s="15">
         <v>-660111</v>
       </c>
-      <c r="F75" s="15">
+      <c r="K75" s="15">
         <v>-958780</v>
       </c>
-      <c r="G75" s="15">
+      <c r="L75" s="15">
         <v>-687218</v>
       </c>
-      <c r="H75" s="15">
+      <c r="M75" s="15">
         <v>-979378</v>
       </c>
-      <c r="I75" s="15">
+      <c r="N75" s="15">
         <v>-983984</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2055,104 +2905,169 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>-37044</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-112211</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-16067</v>
+      </c>
+      <c r="H77" s="11">
+        <v>-213025</v>
+      </c>
+      <c r="I77" s="11">
+        <v>88337</v>
+      </c>
+      <c r="J77" s="11">
         <v>-196355</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>-79148</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>-189250</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>-275884</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>-254253</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D78" s="13"/>
-      <c r="E78" s="13" t="s">
-        <v>13</v>
+      <c r="E78" s="13">
+        <v>0</v>
       </c>
       <c r="F78" s="13">
         <v>0</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>13</v>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="13">
+        <v>0</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>13</v>
+      <c r="E79" s="11">
+        <v>0</v>
       </c>
       <c r="F79" s="11">
         <v>0</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>13</v>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
+        <v>-37044</v>
+      </c>
+      <c r="F80" s="15">
+        <v>-112211</v>
+      </c>
+      <c r="G80" s="15">
+        <v>-16067</v>
+      </c>
+      <c r="H80" s="15">
+        <v>-213025</v>
+      </c>
+      <c r="I80" s="15">
+        <v>88337</v>
+      </c>
+      <c r="J80" s="15">
         <v>-196355</v>
       </c>
-      <c r="F80" s="15">
+      <c r="K80" s="15">
         <v>-79148</v>
       </c>
-      <c r="G80" s="15">
+      <c r="L80" s="15">
         <v>-189250</v>
       </c>
-      <c r="H80" s="15">
+      <c r="M80" s="15">
         <v>-275884</v>
       </c>
-      <c r="I80" s="15">
+      <c r="N80" s="15">
         <v>-254253</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -2161,10 +3076,15 @@
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
@@ -2183,37 +3103,67 @@
       <c r="I82" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="19">
+        <v>0</v>
+      </c>
+      <c r="K82" s="19">
+        <v>0</v>
+      </c>
+      <c r="L82" s="19">
+        <v>0</v>
+      </c>
+      <c r="M82" s="19">
+        <v>0</v>
+      </c>
+      <c r="N82" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="E83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>13</v>
+      <c r="E83" s="15">
+        <v>0</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="19">
@@ -2231,30 +3181,60 @@
       <c r="I84" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="19">
+        <v>0</v>
+      </c>
+      <c r="K84" s="19">
+        <v>0</v>
+      </c>
+      <c r="L84" s="19">
+        <v>0</v>
+      </c>
+      <c r="M84" s="19">
+        <v>0</v>
+      </c>
+      <c r="N84" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
+        <v>-479610</v>
+      </c>
+      <c r="F85" s="15">
+        <v>-653363</v>
+      </c>
+      <c r="G85" s="15">
+        <v>-428921</v>
+      </c>
+      <c r="H85" s="15">
+        <v>-752487</v>
+      </c>
+      <c r="I85" s="15">
+        <v>-384472</v>
+      </c>
+      <c r="J85" s="15">
         <v>-856466</v>
       </c>
-      <c r="F85" s="15">
+      <c r="K85" s="15">
         <v>-1037928</v>
       </c>
-      <c r="G85" s="15">
+      <c r="L85" s="15">
         <v>-876468</v>
       </c>
-      <c r="H85" s="15">
+      <c r="M85" s="15">
         <v>-1255262</v>
       </c>
-      <c r="I85" s="15">
+      <c r="N85" s="15">
         <v>-1238237</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2263,8 +3243,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2273,8 +3258,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2283,10 +3273,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2305,8 +3300,23 @@
       <c r="I89" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2315,10 +3325,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2327,152 +3342,247 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>11406</v>
+      </c>
+      <c r="F92" s="11">
+        <v>30202</v>
+      </c>
+      <c r="G92" s="11">
+        <v>31388</v>
+      </c>
+      <c r="H92" s="11">
+        <v>8513</v>
+      </c>
+      <c r="I92" s="11">
+        <v>-2982</v>
+      </c>
+      <c r="J92" s="11">
         <v>-5026</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>-3716</v>
       </c>
-      <c r="G92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="11">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="13">
+        <v>18</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="13">
         <v>586269</v>
       </c>
-      <c r="H93" s="13">
+      <c r="M93" s="13">
         <v>1585603</v>
       </c>
-      <c r="I93" s="13">
+      <c r="N93" s="13">
         <v>1145807</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>235489</v>
+      </c>
+      <c r="F94" s="11">
+        <v>263024</v>
+      </c>
+      <c r="G94" s="11">
+        <v>297344</v>
+      </c>
+      <c r="H94" s="11">
+        <v>300737</v>
+      </c>
+      <c r="I94" s="11">
+        <v>271872</v>
+      </c>
+      <c r="J94" s="11">
         <v>345771</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>-364265</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>265484</v>
+      </c>
+      <c r="F95" s="13">
+        <v>83595</v>
+      </c>
+      <c r="G95" s="13">
+        <v>129433</v>
+      </c>
+      <c r="H95" s="13">
+        <v>193785</v>
+      </c>
+      <c r="I95" s="13">
+        <v>282794</v>
+      </c>
+      <c r="J95" s="13">
         <v>440076</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>-242980</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="11">
+        <v>18</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="11">
         <v>952993</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
+        <v>512379</v>
+      </c>
+      <c r="F97" s="15">
+        <v>376821</v>
+      </c>
+      <c r="G97" s="15">
+        <v>458165</v>
+      </c>
+      <c r="H97" s="15">
+        <v>503035</v>
+      </c>
+      <c r="I97" s="15">
+        <v>551684</v>
+      </c>
+      <c r="J97" s="15">
         <v>780821</v>
       </c>
-      <c r="F97" s="15">
+      <c r="K97" s="15">
         <v>342032</v>
       </c>
-      <c r="G97" s="15">
+      <c r="L97" s="15">
         <v>586269</v>
       </c>
-      <c r="H97" s="15">
+      <c r="M97" s="15">
         <v>1585603</v>
       </c>
-      <c r="I97" s="15">
+      <c r="N97" s="15">
         <v>1145807</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2481,104 +3591,169 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>117900</v>
+      </c>
+      <c r="F99" s="11">
+        <v>518666</v>
+      </c>
+      <c r="G99" s="11">
+        <v>121619</v>
+      </c>
+      <c r="H99" s="11">
+        <v>115661</v>
+      </c>
+      <c r="I99" s="11">
+        <v>346402</v>
+      </c>
+      <c r="J99" s="11">
         <v>48921</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>538610</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>412567</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>769316</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>470140</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13" t="s">
-        <v>13</v>
+      <c r="E100" s="13">
+        <v>0</v>
       </c>
       <c r="F100" s="13">
         <v>0</v>
       </c>
-      <c r="G100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>13</v>
+      <c r="G100" s="13">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="13">
+        <v>0</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>13</v>
+      <c r="E101" s="11">
+        <v>0</v>
       </c>
       <c r="F101" s="11">
         <v>0</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>13</v>
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11">
+        <v>0</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
+        <v>117900</v>
+      </c>
+      <c r="F102" s="15">
+        <v>518666</v>
+      </c>
+      <c r="G102" s="15">
+        <v>121619</v>
+      </c>
+      <c r="H102" s="15">
+        <v>115661</v>
+      </c>
+      <c r="I102" s="15">
+        <v>346402</v>
+      </c>
+      <c r="J102" s="15">
         <v>48921</v>
       </c>
-      <c r="F102" s="15">
+      <c r="K102" s="15">
         <v>538610</v>
       </c>
-      <c r="G102" s="15">
+      <c r="L102" s="15">
         <v>412567</v>
       </c>
-      <c r="H102" s="15">
+      <c r="M102" s="15">
         <v>769316</v>
       </c>
-      <c r="I102" s="15">
+      <c r="N102" s="15">
         <v>470140</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -2587,10 +3762,15 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -2609,26 +3789,56 @@
       <c r="I104" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="19">
+        <v>0</v>
+      </c>
+      <c r="K104" s="19">
+        <v>0</v>
+      </c>
+      <c r="L104" s="19">
+        <v>0</v>
+      </c>
+      <c r="M104" s="19">
+        <v>0</v>
+      </c>
+      <c r="N104" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
+        <v>630279</v>
+      </c>
+      <c r="F105" s="15">
+        <v>895487</v>
+      </c>
+      <c r="G105" s="15">
+        <v>579784</v>
+      </c>
+      <c r="H105" s="15">
+        <v>618696</v>
+      </c>
+      <c r="I105" s="15">
+        <v>898086</v>
+      </c>
+      <c r="J105" s="15">
         <v>829742</v>
       </c>
-      <c r="F105" s="15">
+      <c r="K105" s="15">
         <v>880642</v>
       </c>
-      <c r="G105" s="15">
+      <c r="L105" s="15">
         <v>998836</v>
       </c>
-      <c r="H105" s="15">
+      <c r="M105" s="15">
         <v>2354919</v>
       </c>
-      <c r="I105" s="15">
+      <c r="N105" s="15">
         <v>1615947</v>
       </c>
     </row>

--- a/database/industries/siman/sehegmat/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/sehegmat/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD67A8-C31B-41B7-9DE3-EE5EEA49CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D33162-AD6E-4D09-A79E-3A7AE11E0212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/04</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/07</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/10</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/01</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +684,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,7 +834,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -860,37 +860,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>101262</v>
+        <v>60746</v>
       </c>
       <c r="F11" s="11">
-        <v>82548</v>
+        <v>21242</v>
       </c>
       <c r="G11" s="11">
-        <v>60746</v>
+        <v>21242</v>
       </c>
       <c r="H11" s="11">
-        <v>21242</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="11">
         <v>0</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>18</v>
+      <c r="L11" s="11">
+        <v>0</v>
       </c>
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -913,23 +913,23 @@
       <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13">
+        <v>272083</v>
+      </c>
+      <c r="K12" s="13">
+        <v>408461</v>
       </c>
       <c r="L12" s="13">
-        <v>272083</v>
+        <v>326075</v>
       </c>
       <c r="M12" s="13">
-        <v>408461</v>
+        <v>249442</v>
       </c>
       <c r="N12" s="13">
-        <v>326075</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>399975</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -938,37 +938,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>362693</v>
+        <v>219151</v>
       </c>
       <c r="F13" s="11">
-        <v>202147</v>
+        <v>240906</v>
       </c>
       <c r="G13" s="11">
-        <v>219151</v>
+        <v>385395</v>
       </c>
       <c r="H13" s="11">
-        <v>240906</v>
+        <v>585235</v>
       </c>
       <c r="I13" s="11">
-        <v>144489</v>
-      </c>
-      <c r="J13" s="11">
-        <v>199840</v>
-      </c>
-      <c r="K13" s="11">
         <v>-116798</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -977,37 +977,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>275752</v>
+        <v>103203</v>
       </c>
       <c r="F14" s="13">
-        <v>169578</v>
+        <v>146623</v>
       </c>
       <c r="G14" s="13">
-        <v>103203</v>
+        <v>278216</v>
       </c>
       <c r="H14" s="13">
-        <v>146623</v>
+        <v>425714</v>
       </c>
       <c r="I14" s="13">
-        <v>131593</v>
-      </c>
-      <c r="J14" s="13">
-        <v>147498</v>
-      </c>
-      <c r="K14" s="13">
         <v>-66706</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1027,14 +1027,14 @@
       <c r="H15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
+      <c r="I15" s="11">
+        <v>519943</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="11">
-        <v>519943</v>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>18</v>
@@ -1046,44 +1046,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
-        <v>739707</v>
+        <v>383100</v>
       </c>
       <c r="F16" s="15">
-        <v>454273</v>
+        <v>408771</v>
       </c>
       <c r="G16" s="15">
-        <v>383100</v>
+        <v>684853</v>
       </c>
       <c r="H16" s="15">
-        <v>408771</v>
+        <v>1010949</v>
       </c>
       <c r="I16" s="15">
-        <v>276082</v>
+        <v>336439</v>
       </c>
       <c r="J16" s="15">
-        <v>347338</v>
+        <v>272083</v>
       </c>
       <c r="K16" s="15">
-        <v>336439</v>
+        <v>408461</v>
       </c>
       <c r="L16" s="15">
-        <v>272083</v>
+        <v>326075</v>
       </c>
       <c r="M16" s="15">
-        <v>408461</v>
+        <v>249442</v>
       </c>
       <c r="N16" s="15">
-        <v>326075</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>399975</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1109,37 +1109,37 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>76367</v>
+        <v>25019</v>
       </c>
       <c r="F18" s="11">
-        <v>144467</v>
+        <v>79082</v>
       </c>
       <c r="G18" s="11">
-        <v>25019</v>
+        <v>53365</v>
       </c>
       <c r="H18" s="11">
-        <v>79082</v>
+        <v>48885</v>
       </c>
       <c r="I18" s="11">
-        <v>32123</v>
+        <v>114454</v>
       </c>
       <c r="J18" s="11">
-        <v>48885</v>
+        <v>108194</v>
       </c>
       <c r="K18" s="11">
-        <v>114454</v>
+        <v>165738</v>
       </c>
       <c r="L18" s="11">
-        <v>108194</v>
+        <v>94359</v>
       </c>
       <c r="M18" s="11">
-        <v>165738</v>
+        <v>57163</v>
       </c>
       <c r="N18" s="11">
-        <v>94359</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
@@ -1153,20 +1153,20 @@
       <c r="F19" s="13">
         <v>0</v>
       </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>18</v>
+      <c r="G19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="13">
-        <v>0</v>
+      <c r="K19" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
@@ -1192,20 +1192,20 @@
       <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="11">
-        <v>0</v>
+      <c r="K20" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>18</v>
@@ -1217,44 +1217,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>76367</v>
+        <v>25019</v>
       </c>
       <c r="F21" s="15">
-        <v>144467</v>
+        <v>79082</v>
       </c>
       <c r="G21" s="15">
-        <v>25019</v>
+        <v>53365</v>
       </c>
       <c r="H21" s="15">
-        <v>79082</v>
+        <v>48885</v>
       </c>
       <c r="I21" s="15">
-        <v>32123</v>
+        <v>114454</v>
       </c>
       <c r="J21" s="15">
-        <v>48885</v>
+        <v>108194</v>
       </c>
       <c r="K21" s="15">
-        <v>114454</v>
+        <v>165738</v>
       </c>
       <c r="L21" s="15">
-        <v>108194</v>
+        <v>94359</v>
       </c>
       <c r="M21" s="15">
-        <v>165738</v>
+        <v>57163</v>
       </c>
       <c r="N21" s="15">
-        <v>94359</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
@@ -1320,11 +1320,11 @@
       <c r="F24" s="15">
         <v>0</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
+      <c r="G24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>18</v>
@@ -1345,7 +1345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
@@ -1382,44 +1382,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15">
-        <v>816074</v>
+        <v>408119</v>
       </c>
       <c r="F26" s="15">
-        <v>598740</v>
+        <v>487853</v>
       </c>
       <c r="G26" s="15">
-        <v>408119</v>
+        <v>738218</v>
       </c>
       <c r="H26" s="15">
-        <v>487853</v>
+        <v>1059834</v>
       </c>
       <c r="I26" s="15">
-        <v>308205</v>
+        <v>450893</v>
       </c>
       <c r="J26" s="15">
-        <v>396223</v>
+        <v>380277</v>
       </c>
       <c r="K26" s="15">
-        <v>450893</v>
+        <v>574199</v>
       </c>
       <c r="L26" s="15">
-        <v>380277</v>
+        <v>420434</v>
       </c>
       <c r="M26" s="15">
-        <v>574199</v>
+        <v>306605</v>
       </c>
       <c r="N26" s="15">
-        <v>420434</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>445448</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1434,7 +1434,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1516,7 +1516,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1542,37 +1542,37 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>94823</v>
+        <v>73829</v>
       </c>
       <c r="F33" s="11">
-        <v>98538</v>
+        <v>25529</v>
       </c>
       <c r="G33" s="11">
-        <v>73829</v>
+        <v>25529</v>
       </c>
       <c r="H33" s="11">
-        <v>25529</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <v>0</v>
       </c>
-      <c r="J33" s="11">
-        <v>0</v>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K33" s="11">
         <v>0</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>18</v>
+      <c r="L33" s="11">
+        <v>0</v>
       </c>
       <c r="M33" s="11">
         <v>0</v>
       </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1595,23 +1595,23 @@
       <c r="I34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>18</v>
+      <c r="J34" s="13">
+        <v>1273487</v>
+      </c>
+      <c r="K34" s="13">
+        <v>2564981</v>
       </c>
       <c r="L34" s="13">
-        <v>1273487</v>
+        <v>2129791</v>
       </c>
       <c r="M34" s="13">
-        <v>2564981</v>
+        <v>1465283</v>
       </c>
       <c r="N34" s="13">
-        <v>2129791</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2647038</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1620,37 +1620,37 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>622581</v>
+        <v>477140</v>
       </c>
       <c r="F35" s="11">
-        <v>450998</v>
+        <v>537029</v>
       </c>
       <c r="G35" s="11">
-        <v>477140</v>
+        <v>987645</v>
       </c>
       <c r="H35" s="11">
-        <v>537029</v>
+        <v>1708723</v>
       </c>
       <c r="I35" s="11">
-        <v>450616</v>
-      </c>
-      <c r="J35" s="11">
-        <v>721078</v>
-      </c>
-      <c r="K35" s="11">
         <v>-433749</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1659,37 +1659,37 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>691260</v>
+        <v>320050</v>
       </c>
       <c r="F36" s="13">
-        <v>368437</v>
+        <v>479939</v>
       </c>
       <c r="G36" s="13">
-        <v>320050</v>
+        <v>1053816</v>
       </c>
       <c r="H36" s="13">
-        <v>479939</v>
+        <v>1773670</v>
       </c>
       <c r="I36" s="13">
-        <v>573877</v>
-      </c>
-      <c r="J36" s="13">
-        <v>719854</v>
-      </c>
-      <c r="K36" s="13">
         <v>-326255</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
@@ -1709,14 +1709,14 @@
       <c r="H37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>18</v>
+      <c r="I37" s="11">
+        <v>2060816</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="11">
-        <v>2060816</v>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>18</v>
@@ -1728,44 +1728,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>1408664</v>
+        <v>871019</v>
       </c>
       <c r="F38" s="15">
-        <v>917973</v>
+        <v>1042497</v>
       </c>
       <c r="G38" s="15">
-        <v>871019</v>
+        <v>2066990</v>
       </c>
       <c r="H38" s="15">
-        <v>1042497</v>
+        <v>3482393</v>
       </c>
       <c r="I38" s="15">
-        <v>1024493</v>
+        <v>1300812</v>
       </c>
       <c r="J38" s="15">
-        <v>1440932</v>
+        <v>1273487</v>
       </c>
       <c r="K38" s="15">
-        <v>1300812</v>
+        <v>2564981</v>
       </c>
       <c r="L38" s="15">
-        <v>1273487</v>
+        <v>2129791</v>
       </c>
       <c r="M38" s="15">
-        <v>2564981</v>
+        <v>1465283</v>
       </c>
       <c r="N38" s="15">
-        <v>2129791</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2647038</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -1791,37 +1791,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>203157</v>
+        <v>137686</v>
       </c>
       <c r="F40" s="11">
-        <v>630877</v>
+        <v>328686</v>
       </c>
       <c r="G40" s="11">
-        <v>137686</v>
+        <v>258065</v>
       </c>
       <c r="H40" s="11">
-        <v>328686</v>
+        <v>245276</v>
       </c>
       <c r="I40" s="11">
-        <v>232536</v>
+        <v>617758</v>
       </c>
       <c r="J40" s="11">
-        <v>245276</v>
+        <v>601817</v>
       </c>
       <c r="K40" s="11">
-        <v>617758</v>
+        <v>1045200</v>
       </c>
       <c r="L40" s="11">
-        <v>601817</v>
+        <v>724393</v>
       </c>
       <c r="M40" s="11">
-        <v>1045200</v>
+        <v>496839</v>
       </c>
       <c r="N40" s="11">
-        <v>724393</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>372215</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
@@ -1835,20 +1835,20 @@
       <c r="F41" s="13">
         <v>0</v>
       </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="13">
-        <v>0</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>18</v>
+      <c r="G41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="13">
-        <v>0</v>
+      <c r="K41" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L41" s="13" t="s">
         <v>18</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1874,20 +1874,20 @@
       <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>18</v>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="11">
-        <v>0</v>
+      <c r="K42" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>18</v>
@@ -1899,44 +1899,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>203157</v>
+        <v>137686</v>
       </c>
       <c r="F43" s="15">
-        <v>630877</v>
+        <v>328686</v>
       </c>
       <c r="G43" s="15">
-        <v>137686</v>
+        <v>258065</v>
       </c>
       <c r="H43" s="15">
-        <v>328686</v>
+        <v>245276</v>
       </c>
       <c r="I43" s="15">
-        <v>232536</v>
+        <v>617758</v>
       </c>
       <c r="J43" s="15">
-        <v>245276</v>
+        <v>601817</v>
       </c>
       <c r="K43" s="15">
-        <v>617758</v>
+        <v>1045200</v>
       </c>
       <c r="L43" s="15">
-        <v>601817</v>
+        <v>724393</v>
       </c>
       <c r="M43" s="15">
-        <v>1045200</v>
+        <v>496839</v>
       </c>
       <c r="N43" s="15">
-        <v>724393</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>372215</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>35</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
@@ -2004,11 +2004,11 @@
       <c r="F46" s="15">
         <v>0</v>
       </c>
-      <c r="G46" s="15">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15">
-        <v>0</v>
+      <c r="G46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>18</v>
@@ -2029,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>29</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19">
-        <v>-100156</v>
+        <v>0</v>
       </c>
       <c r="F47" s="19">
         <v>0</v>
@@ -2068,44 +2068,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>1511665</v>
+        <v>1008705</v>
       </c>
       <c r="F48" s="15">
-        <v>1548850</v>
+        <v>1371183</v>
       </c>
       <c r="G48" s="15">
-        <v>1008705</v>
+        <v>2325055</v>
       </c>
       <c r="H48" s="15">
-        <v>1371183</v>
+        <v>3727669</v>
       </c>
       <c r="I48" s="15">
-        <v>1257029</v>
+        <v>1918570</v>
       </c>
       <c r="J48" s="15">
-        <v>1686208</v>
+        <v>1875304</v>
       </c>
       <c r="K48" s="15">
-        <v>1918570</v>
+        <v>3610181</v>
       </c>
       <c r="L48" s="15">
-        <v>1875304</v>
+        <v>2854184</v>
       </c>
       <c r="M48" s="15">
-        <v>3610181</v>
+        <v>1962122</v>
       </c>
       <c r="N48" s="15">
-        <v>2854184</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3019253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2120,7 +2120,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2135,7 +2135,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2150,7 +2150,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>36</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2202,7 +2202,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>37</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2228,19 +2228,19 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>936412</v>
+        <v>1215372</v>
       </c>
       <c r="F55" s="11">
-        <v>1193705</v>
+        <v>1201817</v>
       </c>
       <c r="G55" s="11">
-        <v>1215372</v>
-      </c>
-      <c r="H55" s="11">
         <v>1201817</v>
       </c>
-      <c r="I55" s="11">
-        <v>1201817</v>
+      <c r="H55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>18</v>
@@ -2258,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2281,23 +2281,23 @@
       <c r="I56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>18</v>
+      <c r="J56" s="13">
+        <v>4680509</v>
+      </c>
+      <c r="K56" s="13">
+        <v>6279623</v>
       </c>
       <c r="L56" s="13">
-        <v>4680509</v>
+        <v>5929015</v>
       </c>
       <c r="M56" s="13">
-        <v>5640294</v>
+        <v>5874243</v>
       </c>
       <c r="N56" s="13">
-        <v>5929015</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6618009</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2306,26 +2306,26 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>1716551</v>
+        <v>2177220</v>
       </c>
       <c r="F57" s="11">
-        <v>2231040</v>
+        <v>2229206</v>
       </c>
       <c r="G57" s="11">
-        <v>2177220</v>
+        <v>2562682</v>
       </c>
       <c r="H57" s="11">
-        <v>2229206</v>
+        <v>2919721</v>
       </c>
       <c r="I57" s="11">
-        <v>2562682</v>
-      </c>
-      <c r="J57" s="11">
-        <v>2919721</v>
-      </c>
-      <c r="K57" s="11">
         <v>3713668</v>
       </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L57" s="11" t="s">
         <v>18</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>21</v>
       </c>
@@ -2345,26 +2345,26 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>2506818</v>
+        <v>3101170</v>
       </c>
       <c r="F58" s="13">
-        <v>2172670</v>
+        <v>3273286</v>
       </c>
       <c r="G58" s="13">
-        <v>3101170</v>
+        <v>3787762</v>
       </c>
       <c r="H58" s="13">
-        <v>3273286</v>
+        <v>4166342</v>
       </c>
       <c r="I58" s="13">
-        <v>3787762</v>
-      </c>
-      <c r="J58" s="13">
-        <v>4166342</v>
-      </c>
-      <c r="K58" s="13">
         <v>4890939</v>
       </c>
+      <c r="J58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="L58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2395,14 +2395,14 @@
       <c r="H59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="11" t="s">
-        <v>18</v>
+      <c r="I59" s="11">
+        <v>3963542</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="11">
-        <v>3963542</v>
+      <c r="K59" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L59" s="11" t="s">
         <v>18</v>
@@ -2414,7 +2414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>39</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2440,37 +2440,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>2660272</v>
+        <v>5503258</v>
       </c>
       <c r="F61" s="11">
-        <v>4366928</v>
+        <v>4156268</v>
       </c>
       <c r="G61" s="11">
-        <v>5503258</v>
+        <v>7238925</v>
       </c>
       <c r="H61" s="11">
-        <v>4156268</v>
+        <v>5017408</v>
       </c>
       <c r="I61" s="11">
-        <v>7238925</v>
+        <v>5397435</v>
       </c>
       <c r="J61" s="11">
-        <v>5017408</v>
+        <v>5562388</v>
       </c>
       <c r="K61" s="11">
-        <v>5397435</v>
+        <v>6306339</v>
       </c>
       <c r="L61" s="11">
-        <v>5562388</v>
+        <v>6438957</v>
       </c>
       <c r="M61" s="11">
-        <v>6012503</v>
+        <v>8691619</v>
       </c>
       <c r="N61" s="11">
-        <v>6438957</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8185407</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2563,7 +2563,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2578,7 +2578,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2593,7 +2593,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>40</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2645,7 +2645,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>41</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2671,37 +2671,37 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-36038</v>
+        <v>-42441</v>
       </c>
       <c r="F70" s="11">
-        <v>-68336</v>
+        <v>-17016</v>
       </c>
       <c r="G70" s="11">
-        <v>-42441</v>
+        <v>-19998</v>
       </c>
       <c r="H70" s="11">
-        <v>-17016</v>
+        <v>-25024</v>
       </c>
       <c r="I70" s="11">
-        <v>-2982</v>
-      </c>
-      <c r="J70" s="11">
-        <v>-5026</v>
+        <v>-3716</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K70" s="11">
-        <v>-3716</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="L70" s="11">
+        <v>0</v>
       </c>
       <c r="M70" s="11">
         <v>0</v>
       </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>19</v>
       </c>
@@ -2724,23 +2724,23 @@
       <c r="I71" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>18</v>
+      <c r="J71" s="13">
+        <v>-687218</v>
+      </c>
+      <c r="K71" s="13">
+        <v>-979378</v>
       </c>
       <c r="L71" s="13">
-        <v>-687218</v>
+        <v>-983984</v>
       </c>
       <c r="M71" s="13">
-        <v>-979378</v>
+        <v>-1221406</v>
       </c>
       <c r="N71" s="13">
-        <v>-983984</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1186488</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2749,37 +2749,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-183830</v>
+        <v>-179796</v>
       </c>
       <c r="F72" s="11">
-        <v>-187974</v>
+        <v>-236292</v>
       </c>
       <c r="G72" s="11">
-        <v>-179796</v>
+        <v>-415036</v>
       </c>
       <c r="H72" s="11">
-        <v>-236292</v>
+        <v>-790343</v>
       </c>
       <c r="I72" s="11">
-        <v>-178744</v>
-      </c>
-      <c r="J72" s="11">
-        <v>-375307</v>
-      </c>
-      <c r="K72" s="11">
         <v>69484</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N72" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>21</v>
       </c>
@@ -2788,37 +2788,37 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>-222698</v>
+        <v>-190617</v>
       </c>
       <c r="F73" s="13">
-        <v>-284842</v>
+        <v>-286154</v>
       </c>
       <c r="G73" s="13">
-        <v>-190617</v>
+        <v>-577237</v>
       </c>
       <c r="H73" s="13">
-        <v>-286154</v>
+        <v>-857015</v>
       </c>
       <c r="I73" s="13">
-        <v>-291083</v>
-      </c>
-      <c r="J73" s="13">
-        <v>-279778</v>
-      </c>
-      <c r="K73" s="13">
         <v>83275</v>
       </c>
-      <c r="L73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N73" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="13">
+        <v>0</v>
+      </c>
+      <c r="M73" s="13">
+        <v>0</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
@@ -2838,14 +2838,14 @@
       <c r="H74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="11" t="s">
-        <v>18</v>
+      <c r="I74" s="11">
+        <v>-1107823</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K74" s="11">
-        <v>-1107823</v>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L74" s="11" t="s">
         <v>18</v>
@@ -2857,44 +2857,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
-        <v>-442566</v>
+        <v>-412854</v>
       </c>
       <c r="F75" s="15">
-        <v>-541152</v>
+        <v>-539462</v>
       </c>
       <c r="G75" s="15">
-        <v>-412854</v>
+        <v>-1012271</v>
       </c>
       <c r="H75" s="15">
-        <v>-539462</v>
+        <v>-1672382</v>
       </c>
       <c r="I75" s="15">
-        <v>-472809</v>
+        <v>-958780</v>
       </c>
       <c r="J75" s="15">
-        <v>-660111</v>
+        <v>-687218</v>
       </c>
       <c r="K75" s="15">
-        <v>-958780</v>
+        <v>-979378</v>
       </c>
       <c r="L75" s="15">
-        <v>-687218</v>
+        <v>-983984</v>
       </c>
       <c r="M75" s="15">
-        <v>-979378</v>
+        <v>-1221406</v>
       </c>
       <c r="N75" s="15">
-        <v>-983984</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1186488</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>43</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>16</v>
       </c>
@@ -2920,37 +2920,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-37044</v>
+        <v>-16067</v>
       </c>
       <c r="F77" s="11">
-        <v>-112211</v>
+        <v>-213025</v>
       </c>
       <c r="G77" s="11">
-        <v>-16067</v>
+        <v>-124688</v>
       </c>
       <c r="H77" s="11">
-        <v>-213025</v>
+        <v>-321043</v>
       </c>
       <c r="I77" s="11">
-        <v>88337</v>
+        <v>-79148</v>
       </c>
       <c r="J77" s="11">
-        <v>-196355</v>
+        <v>-189250</v>
       </c>
       <c r="K77" s="11">
-        <v>-79148</v>
+        <v>-275884</v>
       </c>
       <c r="L77" s="11">
-        <v>-189250</v>
+        <v>-254253</v>
       </c>
       <c r="M77" s="11">
-        <v>-275884</v>
+        <v>-236783</v>
       </c>
       <c r="N77" s="11">
-        <v>-254253</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-97565</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>20</v>
       </c>
@@ -2964,20 +2964,20 @@
       <c r="F78" s="13">
         <v>0</v>
       </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="H78" s="13">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>18</v>
+      <c r="G78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="13">
-        <v>0</v>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>18</v>
@@ -2989,7 +2989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>21</v>
       </c>
@@ -3003,20 +3003,20 @@
       <c r="F79" s="11">
         <v>0</v>
       </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>18</v>
+      <c r="G79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11">
+        <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K79" s="11">
-        <v>0</v>
+      <c r="K79" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L79" s="11" t="s">
         <v>18</v>
@@ -3028,44 +3028,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>-37044</v>
+        <v>-16067</v>
       </c>
       <c r="F80" s="15">
-        <v>-112211</v>
+        <v>-213025</v>
       </c>
       <c r="G80" s="15">
-        <v>-16067</v>
+        <v>-124688</v>
       </c>
       <c r="H80" s="15">
-        <v>-213025</v>
+        <v>-321043</v>
       </c>
       <c r="I80" s="15">
-        <v>88337</v>
+        <v>-79148</v>
       </c>
       <c r="J80" s="15">
-        <v>-196355</v>
+        <v>-189250</v>
       </c>
       <c r="K80" s="15">
-        <v>-79148</v>
+        <v>-275884</v>
       </c>
       <c r="L80" s="15">
-        <v>-189250</v>
+        <v>-254253</v>
       </c>
       <c r="M80" s="15">
-        <v>-275884</v>
+        <v>-236783</v>
       </c>
       <c r="N80" s="15">
-        <v>-254253</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-97565</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>45</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="18" t="s">
         <v>46</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>28</v>
       </c>
@@ -3133,11 +3133,11 @@
       <c r="F83" s="15">
         <v>0</v>
       </c>
-      <c r="G83" s="15">
-        <v>0</v>
-      </c>
-      <c r="H83" s="15">
-        <v>0</v>
+      <c r="G83" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I83" s="15" t="s">
         <v>18</v>
@@ -3158,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="18" t="s">
         <v>29</v>
       </c>
@@ -3197,44 +3197,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
-        <v>-479610</v>
+        <v>-428921</v>
       </c>
       <c r="F85" s="15">
-        <v>-653363</v>
+        <v>-752487</v>
       </c>
       <c r="G85" s="15">
-        <v>-428921</v>
+        <v>-1136959</v>
       </c>
       <c r="H85" s="15">
-        <v>-752487</v>
+        <v>-1993425</v>
       </c>
       <c r="I85" s="15">
-        <v>-384472</v>
+        <v>-1037928</v>
       </c>
       <c r="J85" s="15">
-        <v>-856466</v>
+        <v>-876468</v>
       </c>
       <c r="K85" s="15">
-        <v>-1037928</v>
+        <v>-1255262</v>
       </c>
       <c r="L85" s="15">
-        <v>-876468</v>
+        <v>-1238237</v>
       </c>
       <c r="M85" s="15">
-        <v>-1255262</v>
+        <v>-1458189</v>
       </c>
       <c r="N85" s="15">
-        <v>-1238237</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1284053</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3249,7 +3249,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3264,7 +3264,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3279,7 +3279,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>47</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3331,7 +3331,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>48</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
@@ -3357,37 +3357,37 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>11406</v>
+        <v>31388</v>
       </c>
       <c r="F92" s="11">
-        <v>30202</v>
+        <v>8513</v>
       </c>
       <c r="G92" s="11">
-        <v>31388</v>
+        <v>5531</v>
       </c>
       <c r="H92" s="11">
-        <v>8513</v>
+        <v>505</v>
       </c>
       <c r="I92" s="11">
-        <v>-2982</v>
-      </c>
-      <c r="J92" s="11">
-        <v>-5026</v>
+        <v>-3716</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K92" s="11">
-        <v>-3716</v>
-      </c>
-      <c r="L92" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
       </c>
       <c r="M92" s="11">
         <v>0</v>
       </c>
-      <c r="N92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>19</v>
       </c>
@@ -3410,23 +3410,23 @@
       <c r="I93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J93" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>18</v>
+      <c r="J93" s="13">
+        <v>586269</v>
+      </c>
+      <c r="K93" s="13">
+        <v>1585603</v>
       </c>
       <c r="L93" s="13">
-        <v>586269</v>
+        <v>1145807</v>
       </c>
       <c r="M93" s="13">
-        <v>1585603</v>
+        <v>243877</v>
       </c>
       <c r="N93" s="13">
-        <v>1145807</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1460550</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
@@ -3435,37 +3435,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>235489</v>
+        <v>297344</v>
       </c>
       <c r="F94" s="11">
-        <v>263024</v>
+        <v>300737</v>
       </c>
       <c r="G94" s="11">
-        <v>297344</v>
+        <v>572609</v>
       </c>
       <c r="H94" s="11">
-        <v>300737</v>
+        <v>918380</v>
       </c>
       <c r="I94" s="11">
-        <v>271872</v>
-      </c>
-      <c r="J94" s="11">
-        <v>345771</v>
-      </c>
-      <c r="K94" s="11">
         <v>-364265</v>
       </c>
-      <c r="L94" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="11">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>21</v>
       </c>
@@ -3474,37 +3474,37 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>265484</v>
+        <v>129433</v>
       </c>
       <c r="F95" s="13">
-        <v>83595</v>
+        <v>193785</v>
       </c>
       <c r="G95" s="13">
-        <v>129433</v>
+        <v>476579</v>
       </c>
       <c r="H95" s="13">
-        <v>193785</v>
+        <v>916655</v>
       </c>
       <c r="I95" s="13">
-        <v>282794</v>
-      </c>
-      <c r="J95" s="13">
-        <v>440076</v>
-      </c>
-      <c r="K95" s="13">
         <v>-242980</v>
       </c>
-      <c r="L95" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>22</v>
       </c>
@@ -3524,14 +3524,14 @@
       <c r="H96" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I96" s="11" t="s">
-        <v>18</v>
+      <c r="I96" s="11">
+        <v>952993</v>
       </c>
       <c r="J96" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K96" s="11">
-        <v>952993</v>
+      <c r="K96" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L96" s="11" t="s">
         <v>18</v>
@@ -3543,44 +3543,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>512379</v>
+        <v>458165</v>
       </c>
       <c r="F97" s="15">
-        <v>376821</v>
+        <v>503035</v>
       </c>
       <c r="G97" s="15">
-        <v>458165</v>
+        <v>1054719</v>
       </c>
       <c r="H97" s="15">
-        <v>503035</v>
+        <v>1835540</v>
       </c>
       <c r="I97" s="15">
-        <v>551684</v>
+        <v>342032</v>
       </c>
       <c r="J97" s="15">
-        <v>780821</v>
+        <v>586269</v>
       </c>
       <c r="K97" s="15">
-        <v>342032</v>
+        <v>1585603</v>
       </c>
       <c r="L97" s="15">
-        <v>586269</v>
+        <v>1145807</v>
       </c>
       <c r="M97" s="15">
-        <v>1585603</v>
+        <v>243877</v>
       </c>
       <c r="N97" s="15">
-        <v>1145807</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1460550</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>50</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
@@ -3606,37 +3606,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>117900</v>
+        <v>121619</v>
       </c>
       <c r="F99" s="11">
-        <v>518666</v>
+        <v>115661</v>
       </c>
       <c r="G99" s="11">
-        <v>121619</v>
+        <v>462063</v>
       </c>
       <c r="H99" s="11">
-        <v>115661</v>
+        <v>510984</v>
       </c>
       <c r="I99" s="11">
-        <v>346402</v>
+        <v>538610</v>
       </c>
       <c r="J99" s="11">
-        <v>48921</v>
+        <v>412567</v>
       </c>
       <c r="K99" s="11">
-        <v>538610</v>
+        <v>769316</v>
       </c>
       <c r="L99" s="11">
-        <v>412567</v>
+        <v>470140</v>
       </c>
       <c r="M99" s="11">
-        <v>769316</v>
+        <v>260056</v>
       </c>
       <c r="N99" s="11">
-        <v>470140</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>274650</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>20</v>
       </c>
@@ -3650,20 +3650,20 @@
       <c r="F100" s="13">
         <v>0</v>
       </c>
-      <c r="G100" s="13">
-        <v>0</v>
-      </c>
-      <c r="H100" s="13">
-        <v>0</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>18</v>
+      <c r="G100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
       </c>
       <c r="J100" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K100" s="13">
-        <v>0</v>
+      <c r="K100" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L100" s="13" t="s">
         <v>18</v>
@@ -3675,7 +3675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>21</v>
       </c>
@@ -3689,20 +3689,20 @@
       <c r="F101" s="11">
         <v>0</v>
       </c>
-      <c r="G101" s="11">
-        <v>0</v>
-      </c>
-      <c r="H101" s="11">
-        <v>0</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>18</v>
+      <c r="G101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11">
+        <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K101" s="11">
-        <v>0</v>
+      <c r="K101" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>18</v>
@@ -3714,44 +3714,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
-        <v>117900</v>
+        <v>121619</v>
       </c>
       <c r="F102" s="15">
-        <v>518666</v>
+        <v>115661</v>
       </c>
       <c r="G102" s="15">
-        <v>121619</v>
+        <v>462063</v>
       </c>
       <c r="H102" s="15">
-        <v>115661</v>
+        <v>510984</v>
       </c>
       <c r="I102" s="15">
-        <v>346402</v>
+        <v>538610</v>
       </c>
       <c r="J102" s="15">
-        <v>48921</v>
+        <v>412567</v>
       </c>
       <c r="K102" s="15">
-        <v>538610</v>
+        <v>769316</v>
       </c>
       <c r="L102" s="15">
-        <v>412567</v>
+        <v>470140</v>
       </c>
       <c r="M102" s="15">
-        <v>769316</v>
+        <v>260056</v>
       </c>
       <c r="N102" s="15">
-        <v>470140</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>274650</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>52</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="18" t="s">
         <v>53</v>
       </c>
@@ -3805,41 +3805,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15">
-        <v>630279</v>
+        <v>579784</v>
       </c>
       <c r="F105" s="15">
-        <v>895487</v>
+        <v>618696</v>
       </c>
       <c r="G105" s="15">
-        <v>579784</v>
+        <v>1516782</v>
       </c>
       <c r="H105" s="15">
-        <v>618696</v>
+        <v>2346524</v>
       </c>
       <c r="I105" s="15">
-        <v>898086</v>
+        <v>880642</v>
       </c>
       <c r="J105" s="15">
-        <v>829742</v>
+        <v>998836</v>
       </c>
       <c r="K105" s="15">
-        <v>880642</v>
+        <v>2354919</v>
       </c>
       <c r="L105" s="15">
-        <v>998836</v>
+        <v>1615947</v>
       </c>
       <c r="M105" s="15">
-        <v>2354919</v>
+        <v>503933</v>
       </c>
       <c r="N105" s="15">
-        <v>1615947</v>
+        <v>1735200</v>
       </c>
     </row>
   </sheetData>
